--- a/scrap_CBT/files/historico_estimaciones_nea.xlsx
+++ b/scrap_CBT/files/historico_estimaciones_nea.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\scrapingTrabajo\scrap_CBT\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD21C1F-4FD7-411C-872D-C9DD926AE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDEB0705-D6AF-46CD-A29E-DDEDE4B9C20D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
@@ -483,16 +482,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0D8C2-52C3-4FCD-B4F3-5D2C003BD6B3}">
-  <dimension ref="A1:G91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>42461</v>
       </c>
@@ -514,7 +513,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>42491</v>
       </c>
@@ -525,7 +524,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>42522</v>
       </c>
@@ -536,7 +535,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>42552</v>
       </c>
@@ -547,7 +546,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>42583</v>
       </c>
@@ -558,7 +557,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>42614</v>
       </c>
@@ -569,7 +568,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>42644</v>
       </c>
@@ -580,7 +579,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>42675</v>
       </c>
@@ -591,7 +590,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>42705</v>
       </c>
@@ -604,7 +603,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>42736</v>
       </c>
@@ -617,7 +616,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>42767</v>
       </c>
@@ -630,7 +629,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>42795</v>
       </c>
@@ -643,7 +642,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>42826</v>
       </c>
@@ -657,7 +656,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>42856</v>
       </c>
@@ -670,7 +669,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>42887</v>
       </c>
@@ -683,7 +682,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>42917</v>
       </c>
@@ -696,7 +695,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>42948</v>
       </c>
@@ -709,7 +708,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>42979</v>
       </c>
@@ -722,7 +721,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>43009</v>
       </c>
@@ -735,7 +734,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>43040</v>
       </c>
@@ -748,7 +747,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>43070</v>
       </c>
@@ -761,7 +760,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>43101</v>
       </c>
@@ -774,7 +773,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>43132</v>
       </c>
@@ -787,7 +786,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>43160</v>
       </c>
@@ -800,7 +799,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>43191</v>
       </c>
@@ -813,7 +812,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>43221</v>
       </c>
@@ -826,7 +825,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>43252</v>
       </c>
@@ -839,7 +838,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>43282</v>
       </c>
@@ -852,7 +851,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>43313</v>
       </c>
@@ -865,7 +864,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>43344</v>
       </c>
@@ -878,7 +877,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>43374</v>
       </c>
@@ -891,7 +890,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>43405</v>
       </c>
@@ -904,7 +903,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>43435</v>
       </c>
@@ -917,7 +916,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>43466</v>
       </c>
@@ -930,7 +929,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>43497</v>
       </c>
@@ -943,7 +942,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>43525</v>
       </c>
@@ -956,7 +955,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>43556</v>
       </c>
@@ -969,7 +968,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>43586</v>
       </c>
@@ -982,7 +981,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>43617</v>
       </c>
@@ -995,7 +994,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>43647</v>
       </c>
@@ -1008,7 +1007,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>43678</v>
       </c>
@@ -1021,7 +1020,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>43709</v>
       </c>
@@ -1034,7 +1033,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43739</v>
       </c>
@@ -1047,7 +1046,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>43770</v>
       </c>
@@ -1060,7 +1059,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>43800</v>
       </c>
@@ -1073,7 +1072,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>43831</v>
       </c>
@@ -1086,7 +1085,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>43862</v>
       </c>
@@ -1099,7 +1098,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>43891</v>
       </c>
@@ -1112,7 +1111,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>43922</v>
       </c>
@@ -1125,7 +1124,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>43952</v>
       </c>
@@ -1138,7 +1137,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>43983</v>
       </c>
@@ -1151,7 +1150,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>44013</v>
       </c>
@@ -1164,7 +1163,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>44044</v>
       </c>
@@ -1177,7 +1176,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>44075</v>
       </c>
@@ -1190,7 +1189,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>44105</v>
       </c>
@@ -1203,7 +1202,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>44136</v>
       </c>
@@ -1216,7 +1215,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>44166</v>
       </c>
@@ -1229,7 +1228,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>44197</v>
       </c>
@@ -1242,7 +1241,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>44228</v>
       </c>
@@ -1255,7 +1254,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>44256</v>
       </c>
@@ -1268,7 +1267,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>44287</v>
       </c>
@@ -1281,7 +1280,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>44317</v>
       </c>
@@ -1294,7 +1293,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>44348</v>
       </c>
@@ -1307,7 +1306,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>44378</v>
       </c>
@@ -1322,7 +1321,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>44409</v>
       </c>
@@ -1337,7 +1336,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>44440</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>44470</v>
       </c>
@@ -1367,7 +1366,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>44501</v>
       </c>
@@ -1382,7 +1381,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>44531</v>
       </c>
@@ -1397,7 +1396,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>44562</v>
       </c>
@@ -1410,7 +1409,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>44593</v>
       </c>
@@ -1423,7 +1422,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>44621</v>
       </c>
@@ -1436,7 +1435,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>44652</v>
       </c>
@@ -1449,7 +1448,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>44682</v>
       </c>
@@ -1462,7 +1461,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>44713</v>
       </c>
@@ -1475,7 +1474,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>44743</v>
       </c>
@@ -1488,7 +1487,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>44774</v>
       </c>
@@ -1501,7 +1500,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>44805</v>
       </c>
@@ -1514,7 +1513,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>44835</v>
       </c>
@@ -1527,7 +1526,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>44866</v>
       </c>
@@ -1540,7 +1539,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>44896</v>
       </c>
@@ -1553,7 +1552,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>44927</v>
       </c>
@@ -1566,7 +1565,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>44958</v>
       </c>
@@ -1579,7 +1578,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>44986</v>
       </c>
@@ -1592,7 +1591,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>45017</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>45047</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>45078</v>
       </c>
@@ -1630,15 +1629,6 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scrap_CBT/files/historico_estimaciones_nea.xlsx
+++ b/scrap_CBT/files/historico_estimaciones_nea.xlsx
@@ -44,7 +44,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -140,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -167,6 +174,9 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -483,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,7 +1560,7 @@
         <v>41322.129999999997</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
@@ -1629,6 +1639,72 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>45108</v>
+      </c>
+      <c r="B89" s="8">
+        <v>32385.23</v>
+      </c>
+      <c r="C89" s="8">
+        <v>67685.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>45139</v>
+      </c>
+      <c r="B90" s="8">
+        <v>38042.19</v>
+      </c>
+      <c r="C90" s="8">
+        <v>77606.070000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>45170</v>
+      </c>
+      <c r="B91" s="8">
+        <v>43268.31</v>
+      </c>
+      <c r="C91" s="8">
+        <v>87401.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>45200</v>
+      </c>
+      <c r="B92" s="8">
+        <v>46813.1</v>
+      </c>
+      <c r="C92" s="8">
+        <v>94562.46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>45231</v>
+      </c>
+      <c r="B93" s="8">
+        <v>54097.03</v>
+      </c>
+      <c r="C93" s="8">
+        <v>106571.15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B94" s="8">
+        <v>70249.05</v>
+      </c>
+      <c r="C94" s="8">
+        <v>135580.67000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
